--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.348736381637</v>
+        <v>139.5028214630299</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.3015681911001</v>
+        <v>190.8739147557581</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.1976992269396</v>
+        <v>172.6571762247443</v>
       </c>
       <c r="AD2" t="n">
-        <v>100348.736381637</v>
+        <v>139502.8214630299</v>
       </c>
       <c r="AE2" t="n">
-        <v>137301.5681911001</v>
+        <v>190873.9147557581</v>
       </c>
       <c r="AF2" t="n">
         <v>1.984675546133004e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.91015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>124197.6992269396</v>
+        <v>172657.1762247443</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.4715536310503</v>
+        <v>139.6256387124432</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.4696121700619</v>
+        <v>191.0419587347198</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.3497053244005</v>
+        <v>172.8091823222052</v>
       </c>
       <c r="AD3" t="n">
-        <v>100471.5536310503</v>
+        <v>139625.6387124431</v>
       </c>
       <c r="AE3" t="n">
-        <v>137469.6121700619</v>
+        <v>191041.9587347198</v>
       </c>
       <c r="AF3" t="n">
         <v>1.983180861846818e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>124349.7053244005</v>
+        <v>172809.1823222052</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.45006828329</v>
+        <v>148.1049450760175</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.7544120213609</v>
+        <v>202.6437197819519</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.4620611197204</v>
+        <v>183.303687578267</v>
       </c>
       <c r="AD2" t="n">
-        <v>109450.06828329</v>
+        <v>148104.9450760175</v>
       </c>
       <c r="AE2" t="n">
-        <v>149754.4120213609</v>
+        <v>202643.7197819519</v>
       </c>
       <c r="AF2" t="n">
         <v>2.093889706129059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>135462.0611197204</v>
+        <v>183303.687578267</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.0201848204695</v>
+        <v>189.1189098400471</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.0040853076672</v>
+        <v>258.7608357804928</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.6338708502926</v>
+        <v>234.065064786792</v>
       </c>
       <c r="AD2" t="n">
-        <v>133020.1848204695</v>
+        <v>189118.9098400471</v>
       </c>
       <c r="AE2" t="n">
-        <v>182004.0853076672</v>
+        <v>258760.8357804928</v>
       </c>
       <c r="AF2" t="n">
         <v>2.222401754435723e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.78776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164633.8708502926</v>
+        <v>234065.064786792</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.2183777407296</v>
+        <v>167.5297431566381</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.4880880853073</v>
+        <v>229.2215854774537</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.7895758189726</v>
+        <v>207.3449990740674</v>
       </c>
       <c r="AD2" t="n">
-        <v>120218.3777407296</v>
+        <v>167529.7431566381</v>
       </c>
       <c r="AE2" t="n">
-        <v>164488.0880853072</v>
+        <v>229221.5854774537</v>
       </c>
       <c r="AF2" t="n">
         <v>2.216822362434371e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>148789.5758189726</v>
+        <v>207344.9990740674</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.4774447258705</v>
+        <v>222.2019816453291</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.4675872883766</v>
+        <v>304.026554146577</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.9036631682937</v>
+        <v>275.0106865228663</v>
       </c>
       <c r="AD2" t="n">
-        <v>157477.4447258705</v>
+        <v>222201.9816453291</v>
       </c>
       <c r="AE2" t="n">
-        <v>215467.5872883766</v>
+        <v>304026.554146577</v>
       </c>
       <c r="AF2" t="n">
         <v>2.16073590916716e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>194903.6631682937</v>
+        <v>275010.6865228663</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.7749920337366</v>
+        <v>148.5433870213387</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.1989870313458</v>
+        <v>203.2436153942335</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.8642065147174</v>
+        <v>183.8463299952714</v>
       </c>
       <c r="AD2" t="n">
-        <v>109774.9920337365</v>
+        <v>148543.3870213387</v>
       </c>
       <c r="AE2" t="n">
-        <v>150198.9870313458</v>
+        <v>203243.6153942335</v>
       </c>
       <c r="AF2" t="n">
         <v>2.058931535808063e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>135864.2065147174</v>
+        <v>183846.3299952714</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.1036303589288</v>
+        <v>246.3629390931229</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.1622209021436</v>
+        <v>337.0846420328467</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3825282406888</v>
+        <v>304.9137568985986</v>
       </c>
       <c r="AD2" t="n">
-        <v>182103.6303589288</v>
+        <v>246362.939093123</v>
       </c>
       <c r="AE2" t="n">
-        <v>249162.2209021436</v>
+        <v>337084.6420328467</v>
       </c>
       <c r="AF2" t="n">
         <v>2.077698741481198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.45963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>225382.5282406888</v>
+        <v>304913.7568985986</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.5372870764697</v>
+        <v>157.4453405756535</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.8737486220109</v>
+        <v>215.4236609737146</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.5700084026944</v>
+        <v>194.863929119452</v>
       </c>
       <c r="AD2" t="n">
-        <v>109537.2870764697</v>
+        <v>157445.3405756535</v>
       </c>
       <c r="AE2" t="n">
-        <v>149873.7486220109</v>
+        <v>215423.6609737146</v>
       </c>
       <c r="AF2" t="n">
         <v>2.163921471511779e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>135570.0084026944</v>
+        <v>194863.929119452</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.253889220099</v>
+        <v>147.7909311461138</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.4859911722937</v>
+        <v>202.214072069741</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.219257979757</v>
+        <v>182.915044840695</v>
       </c>
       <c r="AD2" t="n">
-        <v>109253.889220099</v>
+        <v>147790.9311461138</v>
       </c>
       <c r="AE2" t="n">
-        <v>149485.9911722937</v>
+        <v>202214.072069741</v>
       </c>
       <c r="AF2" t="n">
         <v>2.124234082604937e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>135219.257979757</v>
+        <v>182915.044840695</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.2204840166099</v>
+        <v>148.9663280629036</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.126087647175</v>
+        <v>203.8223019861442</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.0389662998382</v>
+        <v>184.3697875510421</v>
       </c>
       <c r="AD2" t="n">
-        <v>100220.4840166099</v>
+        <v>148966.3280629036</v>
       </c>
       <c r="AE2" t="n">
-        <v>137126.087647175</v>
+        <v>203822.3019861442</v>
       </c>
       <c r="AF2" t="n">
         <v>2.009258068223692e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.975260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>124038.9662998382</v>
+        <v>184369.7875510421</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.4772320250661</v>
+        <v>157.5230455929663</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.4740198200957</v>
+        <v>215.5299804065052</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.8722888057387</v>
+        <v>194.9601015747974</v>
       </c>
       <c r="AD2" t="n">
-        <v>119477.2320250661</v>
+        <v>157523.0455929663</v>
       </c>
       <c r="AE2" t="n">
-        <v>163474.0198200957</v>
+        <v>215529.9804065052</v>
       </c>
       <c r="AF2" t="n">
         <v>2.213049126121456e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>147872.2888057387</v>
+        <v>194960.1015747974</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.5244330744281</v>
+        <v>178.4617801099571</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.9575317808245</v>
+        <v>244.1792807244095</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.7826375196952</v>
+        <v>220.8751528799156</v>
       </c>
       <c r="AD2" t="n">
-        <v>131524.4330744281</v>
+        <v>178461.7801099571</v>
       </c>
       <c r="AE2" t="n">
-        <v>179957.5317808245</v>
+        <v>244179.2807244095</v>
       </c>
       <c r="AF2" t="n">
         <v>2.229053703424084e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>162782.6375196952</v>
+        <v>220875.1528799156</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.6396879004326</v>
+        <v>200.4754924063456</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.9024020379618</v>
+        <v>274.2994130647575</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.0148745452806</v>
+        <v>248.1206620635816</v>
       </c>
       <c r="AD2" t="n">
-        <v>144639.6879004326</v>
+        <v>200475.4924063456</v>
       </c>
       <c r="AE2" t="n">
-        <v>197902.4020379618</v>
+        <v>274299.4130647575</v>
       </c>
       <c r="AF2" t="n">
         <v>2.203278086427098e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179014.8745452806</v>
+        <v>248120.6620635816</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.173547007565</v>
+        <v>303.2329860772682</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.6194045038548</v>
+        <v>414.8967492461148</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.7378332670981</v>
+        <v>375.2995858093096</v>
       </c>
       <c r="AD2" t="n">
-        <v>221173.547007565</v>
+        <v>303232.9860772681</v>
       </c>
       <c r="AE2" t="n">
-        <v>302619.4045038548</v>
+        <v>414896.7492461148</v>
       </c>
       <c r="AF2" t="n">
         <v>1.922309409648516e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>273737.8332670981</v>
+        <v>375299.5858093096</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.3163381746846</v>
+        <v>147.7307591358484</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.571436587011</v>
+        <v>202.1317420706942</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.2965486040171</v>
+        <v>182.8405723012063</v>
       </c>
       <c r="AD2" t="n">
-        <v>109316.3381746846</v>
+        <v>147730.7591358484</v>
       </c>
       <c r="AE2" t="n">
-        <v>149571.436587011</v>
+        <v>202131.7420706942</v>
       </c>
       <c r="AF2" t="n">
         <v>2.146627110443318e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.444010416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>135296.5486040172</v>
+        <v>182840.5723012063</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.0293259256475</v>
+        <v>148.9073212897823</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.5469778826777</v>
+        <v>203.7415663159646</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1789856076065</v>
+        <v>184.2967571799112</v>
       </c>
       <c r="AD2" t="n">
-        <v>110029.3259256475</v>
+        <v>148907.3212897823</v>
       </c>
       <c r="AE2" t="n">
-        <v>150546.9778826777</v>
+        <v>203741.5663159646</v>
       </c>
       <c r="AF2" t="n">
         <v>2.028681524077119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>136178.9856076065</v>
+        <v>184296.7571799112</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.1782930650029</v>
+        <v>418.4670055501443</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.3996246720527</v>
+        <v>572.5650184550486</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.8955201419654</v>
+        <v>517.9202166937486</v>
       </c>
       <c r="AD2" t="n">
-        <v>310178.2930650029</v>
+        <v>418467.0055501443</v>
       </c>
       <c r="AE2" t="n">
-        <v>424399.6246720527</v>
+        <v>572565.0184550487</v>
       </c>
       <c r="AF2" t="n">
         <v>1.64633966495456e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.13411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>383895.5201419655</v>
+        <v>517920.2166937486</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.7000313159471</v>
+        <v>167.9155706185191</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.1471077559756</v>
+        <v>229.7494916323053</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.3856995772124</v>
+        <v>207.822522606421</v>
       </c>
       <c r="AD2" t="n">
-        <v>120700.0313159471</v>
+        <v>167915.5706185191</v>
       </c>
       <c r="AE2" t="n">
-        <v>165147.1077559756</v>
+        <v>229749.4916323053</v>
       </c>
       <c r="AF2" t="n">
         <v>2.236114500413199e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>149385.6995772125</v>
+        <v>207822.522606421</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.5725914311658</v>
+        <v>157.3131657579953</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.9220535976243</v>
+        <v>215.2428135570532</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.6137032192316</v>
+        <v>194.7003415264159</v>
       </c>
       <c r="AD2" t="n">
-        <v>109572.5914311658</v>
+        <v>157313.1657579953</v>
       </c>
       <c r="AE2" t="n">
-        <v>149922.0535976243</v>
+        <v>215242.8135570532</v>
       </c>
       <c r="AF2" t="n">
         <v>2.191765144799206e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>135613.7032192316</v>
+        <v>194700.3415264159</v>
       </c>
     </row>
   </sheetData>
